--- a/data/case1/15/V2_2.xlsx
+++ b/data/case1/15/V2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999771203274</v>
+        <v>0.99999999106231852</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99494989676357015</v>
+        <v>0.99380268995620791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97633737677485144</v>
+        <v>0.97012793306358747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96907410881098754</v>
+        <v>0.95855279300161833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96230186155923891</v>
+        <v>0.94733476313692422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94613106508621148</v>
+        <v>0.91996954567171085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93953118359263443</v>
+        <v>0.9133658159502942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93039685139694472</v>
+        <v>0.90422763641587467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.91864557292026761</v>
+        <v>0.89247162225527776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.90781295486613456</v>
+        <v>0.88163632778184919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90621631654195745</v>
+        <v>0.88003940179238882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.90343570991716127</v>
+        <v>0.87725816368647469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.89214597056236489</v>
+        <v>0.86596628153058297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8879779577346032</v>
+        <v>0.86179792791249188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.88538612140467632</v>
+        <v>0.85920595339442851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.88287939288703643</v>
+        <v>0.8566991068029437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.87917120261355997</v>
+        <v>0.85299085015053455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.87806225665297721</v>
+        <v>0.85188193320077521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99198256954449182</v>
+        <v>0.99046379187690048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96784277889511172</v>
+        <v>0.98334672854162208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96135973051558232</v>
+        <v>0.981948247972807</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95084999577719032</v>
+        <v>0.98068374182005202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96848115093467069</v>
+        <v>0.96309215486516919</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95545956079277505</v>
+        <v>0.95007026353431634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9490024370142176</v>
+        <v>0.94361310543432286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94637869166973587</v>
+        <v>0.91791781943904294</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94409621608715821</v>
+        <v>0.91530784471832882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93422579250508286</v>
+        <v>0.9037796364800148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92759171006554986</v>
+        <v>0.89591123450401211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92544655735981096</v>
+        <v>0.89319900216956405</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9287314444547784</v>
+        <v>0.89487075084686774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92705210421469164</v>
+        <v>0.89198287775795404</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92653207876935884</v>
+        <v>0.88989030637329136</v>
       </c>
     </row>
   </sheetData>
